--- a/philips_scorecard/io/philips_rules.xlsx
+++ b/philips_scorecard/io/philips_rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sturner/Documents/Development/WITS/Applications/create_philips_scorecardOLD/philips_scorecard/io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sturner/Documents/Development/WITS/Functions/build_philips_scorecard/philips_scorecard/io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5B253-0C58-D749-930C-07EE41C3A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D3E7AE-0E04-4240-BC5E-FE894A138B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40460" yWindow="500" windowWidth="34340" windowHeight="25000" xr2:uid="{50391E7C-07C4-4370-8AE9-A55AEAB09019}"/>
+    <workbookView xWindow="42460" yWindow="500" windowWidth="34340" windowHeight="25000" xr2:uid="{50391E7C-07C4-4370-8AE9-A55AEAB09019}"/>
   </bookViews>
   <sheets>
     <sheet name="bp" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="235">
   <si>
     <t>Philips Requirements</t>
   </si>
@@ -1008,9 +1008,6 @@
   </si>
   <si>
     <t>Is WEP encryption in use on any SSIDs?</t>
-  </si>
-  <si>
-    <t>bp_5_2_justified</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,16 +1354,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,7 +1695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2250,7 +2240,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="37" t="s">
         <v>73</v>
@@ -2312,35 +2302,31 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="52" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="35">
         <v>24</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="51" t="s">
+      <c r="E23" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="51" t="s">
+      <c r="J23" s="37" t="s">
         <v>85</v>
       </c>
     </row>

--- a/philips_scorecard/io/philips_rules.xlsx
+++ b/philips_scorecard/io/philips_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sturner/Documents/Development/WITS/Functions/build_philips_scorecard/philips_scorecard/io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D3E7AE-0E04-4240-BC5E-FE894A138B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14F819-1595-8B42-8726-EE02EDA7BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42460" yWindow="500" windowWidth="34340" windowHeight="25000" xr2:uid="{50391E7C-07C4-4370-8AE9-A55AEAB09019}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="bp" sheetId="1" r:id="rId1"/>
     <sheet name="bp_headings" sheetId="2" r:id="rId2"/>
     <sheet name="bp (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="260">
   <si>
     <t>Philips Requirements</t>
   </si>
@@ -703,130 +704,6 @@
     <t>p1</t>
   </si>
   <si>
-    <r>
-      <t>UNII-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>channels (36-48) are not available for use in the 5 GHz band. This limits the number of channels available for use by devices, which can increase Co-Channel Interference (CCI)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Enable UNII-3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>channels for use by devices. Verify client devices are compatible with all channels selected in this band</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Is Channel 165 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>(UNII-3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> available for use and device compatibility verified? (20 MHz )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Are 5 GHz Lowest Mandatory Rates limited to 12  and/or 24 Mbps?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t xml:space="preserve">(6/9 disabled) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>More than</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3 SSIDs are in use on the 2.4 GHz band. This increases overhead traffic and can cause poor performance</t>
-    </r>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -1008,13 +885,103 @@
   </si>
   <si>
     <t>Is WEP encryption in use on any SSIDs?</t>
+  </si>
+  <si>
+    <t>Has channel 144 been eliminated on APs supporting Philips devices?</t>
+  </si>
+  <si>
+    <t>Channels 144 is available for use on APs supporting Philips devices. Philips Healthcare devices do not support channel 144 and will be unable to associate with APs assigned this channel, causing the device to disconnect from the network</t>
+  </si>
+  <si>
+    <t>RSSI requirements for Philips Healthcare 802.11 networks do not meet the -67 dBm threshold in all areas</t>
+  </si>
+  <si>
+    <t>Reconfigure the network per recommendations within this report to achieve -67 dBm RSSI</t>
+  </si>
+  <si>
+    <t>SNR requirements for Philips Healthcare 802.11 networks do not meet the 25 dB threshold in all areas</t>
+  </si>
+  <si>
+    <t>Reconfigure the network per recommendations within this report to achieve 25 dB SNR</t>
+  </si>
+  <si>
+    <t>Is primary channel separation a minimum of 20dB per Philips 802.11 requirements?</t>
+  </si>
+  <si>
+    <t>Is WPA2 or WPA2/3 Transition Mode configured on APs supporting Philips devices?</t>
+  </si>
+  <si>
+    <t>Is the SSID supporting Philips devices, broadcasting? (Mandatory if DFS channels are in use)</t>
+  </si>
+  <si>
+    <t>SSIDs used by Life/Business critical applications should be configured on the 5 GHz band, only</t>
+  </si>
+  <si>
+    <t>SSIDs used by non-critical applications should be configured on the 2.4 GHz band, only</t>
+  </si>
+  <si>
+    <t>Identical SSIDs are broadcast on both the 2.4 and 5 GHz bands. This can cause 5 GHz capable devices to connect to the 2.4 GHz band, which may negatively impact performance and roaming</t>
+  </si>
+  <si>
+    <t>UNII-1 channels (36-48) are not available for use in the 5 GHz band. This limits the number of channels available for use by devices, which can increase Co-Channel Interference (CCI)</t>
+  </si>
+  <si>
+    <t>Enable UNII-2a channels for use by devices. Verify client devices are compatible with all channels selected in this band. Monitor the system for DFS Channel Change events to determine if any of these channels are continually affected by radar. Remove specific channels within this band, if necessary</t>
+  </si>
+  <si>
+    <t>Enable UNII-2c channels for use by devices. Verify client devices are compatible with all channels selected in this band. Monitor the system for DFS Channel Change events to determine if any of these channels are continually affected by radar. Remove specific channels within this band, if necessary</t>
+  </si>
+  <si>
+    <t>Enable UNII-3 channels for use by devices. Verify client devices are compatible with all channels selected in this band</t>
+  </si>
+  <si>
+    <t>Is Channel 165 (UNII-3) available for use and device compatibility verified? (20 MHz)</t>
+  </si>
+  <si>
+    <t>UNII-3 channel 165 is not available for use in the 5 GHz band. This limits the number of channels available for use by devices, which can increase Co-Channel Interference (CCI)</t>
+  </si>
+  <si>
+    <t>Are 2.4 GHz Lowest Mandatory Rates limited to 12 and/or 24 Mbps? (1, 2, 5.5, 6, 9, 11 disabled)</t>
+  </si>
+  <si>
+    <t>Are 5 GHz Lowest Mandatory Rates limited to 12 and/or 24 Mbps? (6/9 disabled)</t>
+  </si>
+  <si>
+    <t>6 Mbps data rate is set as a Mandatory data rate for the 5 GHz band. This can negatively impact performance</t>
+  </si>
+  <si>
+    <t>Is 12 Mbps eliminated from 5 GHz Mandatory Data Rates?</t>
+  </si>
+  <si>
+    <t>Are 20 MHz channels in use on the 2.4 GHz band?</t>
+  </si>
+  <si>
+    <t>Reconfigure Channel width to 20 MHz wide channels, only</t>
+  </si>
+  <si>
+    <t>Reconfigure the network to achieve -72 dBm RSSI in all areas</t>
+  </si>
+  <si>
+    <t>Reconfigure the network to achieve 20 dB SNR in all areas</t>
+  </si>
+  <si>
+    <t>Is co-channel interference nominal in 2.4 GHz band?</t>
+  </si>
+  <si>
+    <t>More than 3 SSIDs are in use on the 2.4 GHz band. This increases overhead traffic and can cause poor performance</t>
+  </si>
+  <si>
+    <t>802.11r is enabled or in Non-Adaptive mode. This can cause issues with some devices that do not support it</t>
+  </si>
+  <si>
+    <t>APs are not on the same version as WLC. This can result in poor performance and configuration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,38 +1083,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -1224,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,19 +1263,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1341,21 +1274,21 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,53 +1626,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C98E42B-0438-4020-8CB4-6C162F896307}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11.6640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="72.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" style="46" customWidth="1"/>
     <col min="5" max="6" width="18.6640625" style="35" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="35" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="51.1640625" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="38"/>
+    <col min="9" max="10" width="39.33203125" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="32" t="s">
         <v>176</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -1747,13 +1679,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>7</v>
+        <v>186</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>230</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>8</v>
@@ -1761,24 +1693,24 @@
       <c r="H2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="35">
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="35" t="s">
@@ -1787,25 +1719,25 @@
       <c r="H3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="39"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="I3" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="35" t="s">
@@ -1814,25 +1746,25 @@
       <c r="H4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="I4" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>18</v>
+        <v>186</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>236</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>8</v>
@@ -1840,24 +1772,24 @@
       <c r="H5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="35" t="s">
@@ -1866,25 +1798,25 @@
       <c r="H6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>23</v>
+        <v>186</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>237</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>8</v>
@@ -1892,25 +1824,25 @@
       <c r="H7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>26</v>
+        <v>186</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>238</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>8</v>
@@ -1918,24 +1850,24 @@
       <c r="H8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="45" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1944,24 +1876,24 @@
       <c r="H9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="J9" s="44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="35" t="s">
@@ -1970,11 +1902,11 @@
       <c r="H10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>36</v>
+      <c r="J10" s="44" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -1982,44 +1914,44 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="37" t="s">
+      <c r="I11" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>11</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="45" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="35" t="s">
@@ -2028,10 +1960,10 @@
       <c r="H12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="44" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2040,12 +1972,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="45" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="35" t="s">
@@ -2054,24 +1986,24 @@
       <c r="H13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="37" t="s">
+      <c r="I13" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="45" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="35" t="s">
@@ -2080,24 +2012,24 @@
       <c r="H14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+      <c r="J14" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="45" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="35" t="s">
@@ -2106,24 +2038,24 @@
       <c r="H15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="J15" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="45" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="35" t="s">
@@ -2132,11 +2064,11 @@
       <c r="H16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="37" t="s">
-        <v>170</v>
+      <c r="J16" s="44" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="54.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,13 +2076,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>171</v>
+      <c r="D17" s="45" t="s">
+        <v>246</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>8</v>
@@ -2158,25 +2090,25 @@
       <c r="H17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="37" t="s">
+      <c r="I17" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" s="44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>19</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>66</v>
+      <c r="D18" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>8</v>
@@ -2184,25 +2116,25 @@
       <c r="H18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>20</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>172</v>
+      <c r="D19" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>8</v>
@@ -2210,57 +2142,57 @@
       <c r="H19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>21</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="45" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="38" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="37" t="s">
+      <c r="I20" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" s="44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>22</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>75</v>
+      <c r="D21" s="45" t="s">
+        <v>251</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>9</v>
@@ -2268,10 +2200,10 @@
       <c r="H21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="44" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2280,85 +2212,84 @@
         <v>23</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>80</v>
+      <c r="D22" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>24</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>233</v>
+      <c r="D23" s="45" t="s">
+        <v>228</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>25</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="38" t="s">
         <v>83</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="44" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2367,219 +2298,219 @@
         <v>26</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="45" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>27</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J26" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>29</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="45" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="40"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J27" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>30</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="45" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="J28" s="44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <v>31</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>103</v>
+      <c r="D29" s="45" t="s">
+        <v>256</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="40"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="J29" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>32</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C30" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="45" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="40"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="37" t="s">
+      <c r="I30" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>33</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>34</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C32" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="45" t="s">
         <v>114</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>115</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2588,144 +2519,144 @@
         <v>35</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="45" t="s">
         <v>120</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="38" t="s">
         <v>121</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>36</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="45" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" s="38" t="s">
         <v>125</v>
       </c>
       <c r="H34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="J34" s="44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="43">
+    <row r="35" spans="1:10" s="41" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="40">
         <v>37</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" s="43" t="s">
+      <c r="B35" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="45" t="s">
+      <c r="D35" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
         <v>38</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="40"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>39</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="I37" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="J37" s="37" t="s">
+      <c r="J37" s="44" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2734,12 +2665,12 @@
         <v>40</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
       <c r="E38" s="35" t="s">
@@ -2748,24 +2679,24 @@
       <c r="H38" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="37" t="s">
+      <c r="I38" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" s="44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="35">
         <v>41</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E39" s="35" t="s">
@@ -2774,10 +2705,10 @@
       <c r="H39" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="J39" s="37" t="s">
+      <c r="J39" s="44" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2786,12 +2717,12 @@
         <v>42</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C40" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E40" s="35" t="s">
@@ -2800,10 +2731,10 @@
       <c r="H40" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="J40" s="37" t="s">
+      <c r="J40" s="44" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2812,12 +2743,12 @@
         <v>43</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E41" s="35" t="s">
@@ -2826,24 +2757,24 @@
       <c r="H41" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="J41" s="37" t="s">
+      <c r="I41" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" s="44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="35">
         <v>44</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="45" t="s">
         <v>149</v>
       </c>
       <c r="E42" s="35" t="s">
@@ -2852,10 +2783,10 @@
       <c r="H42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="I42" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="37" t="s">
+      <c r="J42" s="44" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4272,6 +4203,609 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19633762-990A-2F40-8AB7-B4C5ABFC9C63}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4279,6 +4813,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009CAEA84C83EA5E419844E3E861657088" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c9405691d53a97f90b2f9c4b089bf42f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cdeb6798-cfe4-40bf-9452-ea8f30cdf059" xmlns:ns3="4790f084-8e7f-4a4d-8085-d6f173f1ad5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c4ab5133dc63d5412e39e7a6999f09a" ns2:_="" ns3:_="">
     <xsd:import namespace="cdeb6798-cfe4-40bf-9452-ea8f30cdf059"/>
@@ -4455,15 +4998,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9CEBD90-DC8F-4999-B6E5-924D4FE8FC52}">
   <ds:schemaRefs>
@@ -4474,6 +5008,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BABE5E9-5084-4E9C-9F57-9C33D5EB8F3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C1A4531-C9AC-4DC1-AF1E-3745396A9F0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4490,12 +5032,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BABE5E9-5084-4E9C-9F57-9C33D5EB8F3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>